--- a/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/资本形成总额.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/资本形成总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,449 +528,274 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>854851.3083235139</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>34483169.2255483</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9530000</v>
+      </c>
       <c r="D2" t="n">
-        <v>11088056.4947403</v>
+        <v>37809040.8926893</v>
       </c>
       <c r="E2" t="n">
-        <v>902689.864570015</v>
+        <v>11652841.2910067</v>
       </c>
       <c r="F2" t="n">
-        <v>216877093.846889</v>
+        <v>962683064.403476</v>
       </c>
       <c r="G2" t="n">
-        <v>5043700</v>
+        <v>74636000</v>
       </c>
       <c r="H2" t="n">
-        <v>3658077.3682</v>
+        <v>28964571.2176557</v>
       </c>
       <c r="I2" t="n">
-        <v>90160076.8297476</v>
+        <v>688246090.739046</v>
       </c>
       <c r="J2" t="n">
-        <v>-1517859.73813034</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
+        <v>-391919.643674476</v>
+      </c>
+      <c r="K2" t="n">
+        <v>147042.603852219</v>
+      </c>
       <c r="L2" t="n">
-        <v>-1980675.82</v>
+        <v>6945181.03324553</v>
       </c>
       <c r="M2" t="n">
-        <v>324998000.320994</v>
+        <v>1936039112.27176</v>
       </c>
       <c r="N2" t="n">
-        <v>754627.307</v>
+        <v>37733559.32143</v>
       </c>
       <c r="O2" t="n">
-        <v>1526456</v>
+        <v>10193968.7647735</v>
       </c>
       <c r="P2" t="n">
-        <v>223386.229653527</v>
+        <v>16469165.3220714</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-50600.18</v>
+        <v>4335521.98016248</v>
       </c>
       <c r="S2" t="n">
-        <v>-2541879.19</v>
+        <v>12601815.1204779</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4022988.05196753</v>
+        <v>26075001.1823437</v>
       </c>
       <c r="C3" t="n">
-        <v>1261146.77874707</v>
+        <v>12097459.9896293</v>
       </c>
       <c r="D3" t="n">
-        <v>11047060.3458967</v>
+        <v>66925827.2027638</v>
       </c>
       <c r="E3" t="n">
-        <v>2433749.81524113</v>
+        <v>2298943.21622989</v>
       </c>
       <c r="F3" t="n">
-        <v>272753592.325233</v>
+        <v>1289122577.61883</v>
       </c>
       <c r="G3" t="n">
-        <v>11426735.0726962</v>
+        <v>94064000</v>
       </c>
       <c r="H3" t="n">
-        <v>10933296.2001408</v>
+        <v>55421918.6735868</v>
       </c>
       <c r="I3" t="n">
-        <v>133259635.712976</v>
+        <v>773918858.2948821</v>
       </c>
       <c r="J3" t="n">
-        <v>-349708</v>
+        <v>5035428.12549727</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>125848.726596016</v>
+        <v>3423087.80468042</v>
       </c>
       <c r="M3" t="n">
-        <v>455650000</v>
+        <v>2483898953.95987</v>
       </c>
       <c r="N3" t="n">
-        <v>2399696.73700009</v>
+        <v>100808649.804226</v>
       </c>
       <c r="O3" t="n">
-        <v>1923194.25998719</v>
+        <v>6175683.95284262</v>
       </c>
       <c r="P3" t="n">
-        <v>3179533.04970086</v>
+        <v>31177293.0100572</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1465234.11955529</v>
+        <v>-681010.32412904</v>
       </c>
       <c r="S3" t="n">
-        <v>2698465.19243423</v>
+        <v>18035235.4084296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2583935.21245821</v>
+        <v>32652368.3675162</v>
       </c>
       <c r="C4" t="n">
-        <v>2065700</v>
+        <v>8800900</v>
       </c>
       <c r="D4" t="n">
-        <v>15471618.4756642</v>
+        <v>37127427.0614386</v>
       </c>
       <c r="E4" t="n">
-        <v>-9444649.01001801</v>
+        <v>-8139197.48377072</v>
       </c>
       <c r="F4" t="n">
-        <v>412394111.961125</v>
+        <v>1790724840</v>
       </c>
       <c r="G4" t="n">
-        <v>33730300</v>
+        <v>95956515.5642024</v>
       </c>
       <c r="H4" t="n">
-        <v>19748740.982738</v>
+        <v>84376094.46882661</v>
       </c>
       <c r="I4" t="n">
-        <v>281573658.285672</v>
+        <v>795935579.956344</v>
       </c>
       <c r="J4" t="n">
-        <v>24347.856065466</v>
+        <v>-2068018.6053725</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>4614341.68139564</v>
+        <v>19615870.8778509</v>
       </c>
       <c r="M4" t="n">
-        <v>806463006.663515</v>
+        <v>3032717166.41532</v>
       </c>
       <c r="N4" t="n">
-        <v>13150547.4597104</v>
+        <v>154225342.866405</v>
       </c>
       <c r="O4" t="n">
-        <v>-3908317.30062631</v>
+        <v>1957567.59331084</v>
       </c>
       <c r="P4" t="n">
-        <v>4780264.6264262</v>
+        <v>3001810.26473601</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>1770327.19680415</v>
+        <v>-2040553.26295603</v>
       </c>
       <c r="S4" t="n">
-        <v>27908079.2360999</v>
+        <v>20590618.7467937</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22078823.6345901</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3185000</v>
-      </c>
+        <v>789101.118771975</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>20416357.9204817</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4922679.00705045</v>
-      </c>
+        <v>24008203.0746389</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>588465911.689337</v>
-      </c>
-      <c r="G5" t="n">
-        <v>34062553.9071428</v>
-      </c>
-      <c r="H5" t="n">
-        <v>19848283.7041805</v>
-      </c>
+        <v>2180439905.42086</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>369135413.239632</v>
+        <v>794376294.59275</v>
       </c>
       <c r="J5" t="n">
-        <v>-531633.1166782751</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>7393133.50044022</v>
+      </c>
+      <c r="K5" t="n">
+        <v>703047.435663845</v>
+      </c>
       <c r="L5" t="n">
-        <v>2525505.26513485</v>
+        <v>-1482809.87201344</v>
       </c>
       <c r="M5" t="n">
-        <v>1109194214.40514</v>
-      </c>
-      <c r="N5" t="n">
-        <v>15234054.2518658</v>
-      </c>
+        <v>3644602655.115</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>2491280.50273482</v>
+        <v>3156725.56283968</v>
       </c>
       <c r="P5" t="n">
-        <v>17337538.239764</v>
+        <v>28418785.7406327</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>541400.819932353</v>
+        <v>781168.5101971</v>
       </c>
       <c r="S5" t="n">
-        <v>9481045.33996816</v>
+        <v>15002842.0984874</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34483169.2255483</v>
+        <v>-157992.322467643</v>
       </c>
       <c r="C6" t="n">
-        <v>9530000</v>
+        <v>5234595.238605</v>
       </c>
       <c r="D6" t="n">
-        <v>37809040.8926893</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11652841.2910067</v>
-      </c>
+        <v>72478841.18828399</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>962683064.403476</v>
-      </c>
-      <c r="G6" t="n">
-        <v>74636000</v>
-      </c>
-      <c r="H6" t="n">
-        <v>28964571.2176557</v>
-      </c>
+        <v>2707176325.74967</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>688246090.739046</v>
+        <v>820471959.731071</v>
       </c>
       <c r="J6" t="n">
-        <v>-391919.643674476</v>
+        <v>-25605149.2034971</v>
       </c>
       <c r="K6" t="n">
-        <v>147042.603852219</v>
+        <v>1785150.09795483</v>
       </c>
       <c r="L6" t="n">
-        <v>6945181.03324553</v>
+        <v>-3571111.18213603</v>
       </c>
       <c r="M6" t="n">
-        <v>1936039112.27176</v>
-      </c>
-      <c r="N6" t="n">
-        <v>37733559.32143</v>
-      </c>
+        <v>4335213941.04906</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>10193968.7647735</v>
+        <v>462218.578754962</v>
       </c>
       <c r="P6" t="n">
-        <v>16469165.3220714</v>
+        <v>38119950.9600789</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>4335521.98016248</v>
+        <v>2140696.25007459</v>
       </c>
       <c r="S6" t="n">
-        <v>12601815.1204779</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>26075001.1823437</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12097459.9896293</v>
-      </c>
-      <c r="D7" t="n">
-        <v>66925827.2027638</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2298943.21622989</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1289122577.61883</v>
-      </c>
-      <c r="G7" t="n">
-        <v>94064000</v>
-      </c>
-      <c r="H7" t="n">
-        <v>55421918.6735868</v>
-      </c>
-      <c r="I7" t="n">
-        <v>773918858.2948821</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5035428.12549727</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>3423087.80468042</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2483898953.95987</v>
-      </c>
-      <c r="N7" t="n">
-        <v>100808649.804226</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6175683.95284262</v>
-      </c>
-      <c r="P7" t="n">
-        <v>31177293.0100572</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="n">
-        <v>-681010.32412904</v>
-      </c>
-      <c r="S7" t="n">
-        <v>18035235.4084296</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>32652368.3675162</v>
-      </c>
-      <c r="C8" t="n">
-        <v>8800900</v>
-      </c>
-      <c r="D8" t="n">
-        <v>37127427.0614386</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-8139197.48377072</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1790724840</v>
-      </c>
-      <c r="G8" t="n">
-        <v>95956515.5642024</v>
-      </c>
-      <c r="H8" t="n">
-        <v>84376094.46882661</v>
-      </c>
-      <c r="I8" t="n">
-        <v>795935579.956344</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-2068018.6053725</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>19615870.8778509</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3032717166.41532</v>
-      </c>
-      <c r="N8" t="n">
-        <v>154225342.866405</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1957567.59331084</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3001810.26473601</v>
-      </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="n">
-        <v>-2040553.26295603</v>
-      </c>
-      <c r="S8" t="n">
-        <v>20590618.7467937</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>789101.118771975</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
-        <v>24008203.0746389</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>2180439905.42086</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>794376294.59275</v>
-      </c>
-      <c r="J9" t="n">
-        <v>7393133.50044022</v>
-      </c>
-      <c r="K9" t="n">
-        <v>703047.435663845</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-1482809.87201344</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3644602655.115</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
-        <v>3156725.56283968</v>
-      </c>
-      <c r="P9" t="n">
-        <v>28418785.7406327</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
-        <v>781168.5101971</v>
-      </c>
-      <c r="S9" t="n">
-        <v>15002842.0984874</v>
+        <v>8525640.232746361</v>
       </c>
     </row>
   </sheetData>
